--- a/XCustPr/doc/60-12-18/PO006_UNIT_TEST_RESULT_60-12-18.xlsx
+++ b/XCustPr/doc/60-12-18/PO006_UNIT_TEST_RESULT_60-12-18.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yai\Dropbox\KFC-CNES\Test Plan\Test Result\PO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9030" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CASE" sheetId="11" r:id="rId1"/>
@@ -39,7 +34,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -353,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -401,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -433,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -449,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -481,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -513,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -529,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -545,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -577,7 +572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -593,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -609,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -625,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -641,7 +636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -657,7 +652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -673,7 +668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -689,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -721,7 +716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0">
+    <comment ref="AR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -753,7 +748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0">
+    <comment ref="AS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -769,7 +764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0">
+    <comment ref="AT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -785,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0">
+    <comment ref="AU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -801,7 +796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -817,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -833,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -849,7 +844,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment ref="AZ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -881,7 +876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0">
+    <comment ref="BA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -897,7 +892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0">
+    <comment ref="BB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -913,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0">
+    <comment ref="BC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -929,7 +924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0" shapeId="0">
+    <comment ref="BD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -945,7 +940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0">
+    <comment ref="BE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -961,7 +956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0" shapeId="0">
+    <comment ref="BF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -977,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0">
+    <comment ref="BG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -993,7 +988,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0">
+    <comment ref="BH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1013,7 +1008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0">
+    <comment ref="BI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0">
+    <comment ref="BJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1053,7 +1048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0">
+    <comment ref="BK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1073,7 +1068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0" shapeId="0">
+    <comment ref="BL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1093,7 +1088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0">
+    <comment ref="BM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1113,7 +1108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0" shapeId="0">
+    <comment ref="BN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1133,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO1" authorId="0" shapeId="0">
+    <comment ref="BO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1153,7 +1148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP1" authorId="0" shapeId="0">
+    <comment ref="BP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1173,7 +1168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0">
+    <comment ref="BQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1193,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR1" authorId="0" shapeId="0">
+    <comment ref="BR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1213,7 +1208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS1" authorId="0" shapeId="0">
+    <comment ref="BS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1233,7 +1228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT1" authorId="0" shapeId="0">
+    <comment ref="BT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1253,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU1" authorId="0" shapeId="0">
+    <comment ref="BU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1273,7 +1268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BV1" authorId="0" shapeId="0">
+    <comment ref="BV1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1293,7 +1288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BW1" authorId="0" shapeId="0">
+    <comment ref="BW1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1313,7 +1308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BX1" authorId="0" shapeId="0">
+    <comment ref="BX1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1333,7 +1328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY1" authorId="0" shapeId="0">
+    <comment ref="BY1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1353,7 +1348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ1" authorId="0" shapeId="0">
+    <comment ref="BZ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1373,7 +1368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA1" authorId="0" shapeId="0">
+    <comment ref="CA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1393,7 +1388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB1" authorId="0" shapeId="0">
+    <comment ref="CB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1413,7 +1408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC1" authorId="0" shapeId="0">
+    <comment ref="CC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1433,7 +1428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CD1" authorId="0" shapeId="0">
+    <comment ref="CD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1453,7 +1448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE1" authorId="0" shapeId="0">
+    <comment ref="CE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1473,7 +1468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CF1" authorId="0" shapeId="0">
+    <comment ref="CF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1493,7 +1488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG1" authorId="0" shapeId="0">
+    <comment ref="CG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1513,7 +1508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CH1" authorId="0" shapeId="0">
+    <comment ref="CH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1533,7 +1528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CI1" authorId="0" shapeId="0">
+    <comment ref="CI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1553,7 +1548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CJ1" authorId="0" shapeId="0">
+    <comment ref="CJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1573,7 +1568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CK1" authorId="0" shapeId="0">
+    <comment ref="CK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1593,7 +1588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CL1" authorId="0" shapeId="0">
+    <comment ref="CL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1613,7 +1608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CM1" authorId="0" shapeId="0">
+    <comment ref="CM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1633,7 +1628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CN1" authorId="0" shapeId="0">
+    <comment ref="CN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1653,7 +1648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CO1" authorId="0" shapeId="0">
+    <comment ref="CO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1673,7 +1668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CP1" authorId="0" shapeId="0">
+    <comment ref="CP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1693,7 +1688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CQ1" authorId="0" shapeId="0">
+    <comment ref="CQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1713,7 +1708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CR1" authorId="0" shapeId="0">
+    <comment ref="CR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1733,7 +1728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CS1" authorId="0" shapeId="0">
+    <comment ref="CS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1753,7 +1748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CT1" authorId="0" shapeId="0">
+    <comment ref="CT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1773,7 +1768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CU1" authorId="0" shapeId="0">
+    <comment ref="CU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1793,7 +1788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CV1" authorId="0" shapeId="0">
+    <comment ref="CV1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1813,7 +1808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CW1" authorId="0" shapeId="0">
+    <comment ref="CW1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1833,7 +1828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CX1" authorId="0" shapeId="0">
+    <comment ref="CX1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1853,7 +1848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CY1" authorId="0" shapeId="0">
+    <comment ref="CY1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1873,7 +1868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CZ1" authorId="0" shapeId="0">
+    <comment ref="CZ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1893,7 +1888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DA1" authorId="0" shapeId="0">
+    <comment ref="DA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1913,7 +1908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DB1" authorId="0" shapeId="0">
+    <comment ref="DB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1933,7 +1928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DC1" authorId="0" shapeId="0">
+    <comment ref="DC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1953,7 +1948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DD1" authorId="0" shapeId="0">
+    <comment ref="DD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1973,7 +1968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DE1" authorId="0" shapeId="0">
+    <comment ref="DE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1993,7 +1988,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DF1" authorId="0" shapeId="0">
+    <comment ref="DF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2009,7 +2004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DG1" authorId="0" shapeId="0">
+    <comment ref="DG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2025,7 +2020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DH1" authorId="0" shapeId="0">
+    <comment ref="DH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2041,7 +2036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DI1" authorId="0" shapeId="0">
+    <comment ref="DI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2057,7 +2052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DJ1" authorId="0" shapeId="0">
+    <comment ref="DJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2073,7 +2068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DK1" authorId="0" shapeId="0">
+    <comment ref="DK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2089,7 +2084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DL1" authorId="0" shapeId="0">
+    <comment ref="DL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2105,7 +2100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DM1" authorId="0" shapeId="0">
+    <comment ref="DM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2121,7 +2116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DN1" authorId="0" shapeId="0">
+    <comment ref="DN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2137,7 +2132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DO1" authorId="0" shapeId="0">
+    <comment ref="DO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2153,7 +2148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DP1" authorId="0" shapeId="0">
+    <comment ref="DP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2169,7 +2164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DQ1" authorId="0" shapeId="0">
+    <comment ref="DQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2185,7 +2180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DR1" authorId="0" shapeId="0">
+    <comment ref="DR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2201,7 +2196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DS1" authorId="0" shapeId="0">
+    <comment ref="DS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2217,7 +2212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DT1" authorId="0" shapeId="0">
+    <comment ref="DT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2233,7 +2228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DU1" authorId="0" shapeId="0">
+    <comment ref="DU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2248,7 +2243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DV1" authorId="0" shapeId="0">
+    <comment ref="DV1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2273,7 +2268,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2288,7 +2283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2303,7 +2298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2319,7 +2314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2335,7 +2330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2351,7 +2346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2367,7 +2362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2383,7 +2378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2399,7 +2394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2415,7 +2410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2431,7 +2426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2447,7 +2442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2463,7 +2458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2479,7 +2474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2504,7 +2499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2519,7 +2514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2544,7 +2539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2569,7 +2564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2594,7 +2589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2619,7 +2614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2644,7 +2639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2669,7 +2664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2694,7 +2689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2719,7 +2714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2745,7 +2740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0">
+    <comment ref="Y2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2771,7 +2766,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2797,7 +2792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2823,7 +2818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2849,7 +2844,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2875,7 +2870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0">
+    <comment ref="AD2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2901,7 +2896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="AE2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2927,7 +2922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="0" shapeId="0">
+    <comment ref="AF2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2953,7 +2948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG2" authorId="0" shapeId="0">
+    <comment ref="AG2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2979,7 +2974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="0" shapeId="0">
+    <comment ref="AH2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2999,7 +2994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="0" shapeId="0">
+    <comment ref="AI2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3019,7 +3014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="0" shapeId="0">
+    <comment ref="AJ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3039,7 +3034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="0" shapeId="0">
+    <comment ref="AK2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3059,7 +3054,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="0" shapeId="0">
+    <comment ref="AL2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3079,7 +3074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="0" shapeId="0">
+    <comment ref="AM2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3099,7 +3094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="0" shapeId="0">
+    <comment ref="AN2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3119,7 +3114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="0" shapeId="0">
+    <comment ref="AO2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3139,7 +3134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="0" shapeId="0">
+    <comment ref="AP2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3159,7 +3154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="0" shapeId="0">
+    <comment ref="AQ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3179,7 +3174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="0" shapeId="0">
+    <comment ref="AR2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3199,7 +3194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="0" shapeId="0">
+    <comment ref="AS2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3219,7 +3214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="0" shapeId="0">
+    <comment ref="AT2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3239,7 +3234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="0" shapeId="0">
+    <comment ref="AU2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3259,7 +3254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="0" shapeId="0">
+    <comment ref="AV2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3279,7 +3274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="0" shapeId="0">
+    <comment ref="AW2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3299,7 +3294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="0" shapeId="0">
+    <comment ref="AX2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3319,7 +3314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY2" authorId="0" shapeId="0">
+    <comment ref="AY2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3339,7 +3334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ2" authorId="0" shapeId="0">
+    <comment ref="AZ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3359,7 +3354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA2" authorId="0" shapeId="0">
+    <comment ref="BA2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3379,7 +3374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB2" authorId="0" shapeId="0">
+    <comment ref="BB2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3399,7 +3394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC2" authorId="0" shapeId="0">
+    <comment ref="BC2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3419,7 +3414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD2" authorId="0" shapeId="0">
+    <comment ref="BD2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3439,7 +3434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE2" authorId="0" shapeId="0">
+    <comment ref="BE2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3459,7 +3454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF2" authorId="0" shapeId="0">
+    <comment ref="BF2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3479,7 +3474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG2" authorId="0" shapeId="0">
+    <comment ref="BG2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3499,7 +3494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH2" authorId="0" shapeId="0">
+    <comment ref="BH2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3519,7 +3514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI2" authorId="0" shapeId="0">
+    <comment ref="BI2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3539,7 +3534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ2" authorId="0" shapeId="0">
+    <comment ref="BJ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3559,7 +3554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK2" authorId="0" shapeId="0">
+    <comment ref="BK2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3579,7 +3574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL2" authorId="0" shapeId="0">
+    <comment ref="BL2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3599,7 +3594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM2" authorId="0" shapeId="0">
+    <comment ref="BM2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3619,7 +3614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN2" authorId="0" shapeId="0">
+    <comment ref="BN2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3639,7 +3634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO2" authorId="0" shapeId="0">
+    <comment ref="BO2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3659,7 +3654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP2" authorId="0" shapeId="0">
+    <comment ref="BP2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3679,7 +3674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ2" authorId="0" shapeId="0">
+    <comment ref="BQ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3699,7 +3694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR2" authorId="0" shapeId="0">
+    <comment ref="BR2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3719,7 +3714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS2" authorId="0" shapeId="0">
+    <comment ref="BS2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3739,7 +3734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT2" authorId="0" shapeId="0">
+    <comment ref="BT2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3759,7 +3754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU2" authorId="0" shapeId="0">
+    <comment ref="BU2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3779,7 +3774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BV2" authorId="0" shapeId="0">
+    <comment ref="BV2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3799,7 +3794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BW2" authorId="0" shapeId="0">
+    <comment ref="BW2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3819,7 +3814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BX2" authorId="0" shapeId="0">
+    <comment ref="BX2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3839,7 +3834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY2" authorId="0" shapeId="0">
+    <comment ref="BY2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3859,7 +3854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ2" authorId="0" shapeId="0">
+    <comment ref="BZ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3879,7 +3874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA2" authorId="0" shapeId="0">
+    <comment ref="CA2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3899,7 +3894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB2" authorId="0" shapeId="0">
+    <comment ref="CB2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3919,7 +3914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC2" authorId="0" shapeId="0">
+    <comment ref="CC2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3939,7 +3934,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CD2" authorId="0" shapeId="0">
+    <comment ref="CD2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3959,7 +3954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE2" authorId="0" shapeId="0">
+    <comment ref="CE2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3979,7 +3974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CF2" authorId="0" shapeId="0">
+    <comment ref="CF2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3995,7 +3990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG2" authorId="0" shapeId="0">
+    <comment ref="CG2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4011,7 +4006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CH2" authorId="0" shapeId="0">
+    <comment ref="CH2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4027,7 +4022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CI2" authorId="0" shapeId="0">
+    <comment ref="CI2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4043,7 +4038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CJ2" authorId="0" shapeId="0">
+    <comment ref="CJ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4059,7 +4054,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CK2" authorId="0" shapeId="0">
+    <comment ref="CK2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4075,7 +4070,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CL2" authorId="0" shapeId="0">
+    <comment ref="CL2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4091,7 +4086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CM2" authorId="0" shapeId="0">
+    <comment ref="CM2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4107,7 +4102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CN2" authorId="0" shapeId="0">
+    <comment ref="CN2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4123,7 +4118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CO2" authorId="0" shapeId="0">
+    <comment ref="CO2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4139,7 +4134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CP2" authorId="0" shapeId="0">
+    <comment ref="CP2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4155,7 +4150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CQ2" authorId="0" shapeId="0">
+    <comment ref="CQ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4171,7 +4166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CR2" authorId="0" shapeId="0">
+    <comment ref="CR2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4187,7 +4182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CS2" authorId="0" shapeId="0">
+    <comment ref="CS2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4202,7 +4197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CT2" authorId="0" shapeId="0">
+    <comment ref="CT2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4218,7 +4213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CU2" authorId="0" shapeId="0">
+    <comment ref="CU2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4234,7 +4229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CV2" authorId="0" shapeId="0">
+    <comment ref="CV2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4250,7 +4245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CW2" authorId="0" shapeId="0">
+    <comment ref="CW2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4266,7 +4261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CX2" authorId="0" shapeId="0">
+    <comment ref="CX2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4282,7 +4277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CY2" authorId="0" shapeId="0">
+    <comment ref="CY2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4298,7 +4293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CZ2" authorId="0" shapeId="0">
+    <comment ref="CZ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4314,7 +4309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DA2" authorId="0" shapeId="0">
+    <comment ref="DA2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4330,7 +4325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DB2" authorId="0" shapeId="0">
+    <comment ref="DB2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4346,7 +4341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DC2" authorId="0" shapeId="0">
+    <comment ref="DC2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4362,7 +4357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DD2" authorId="0" shapeId="0">
+    <comment ref="DD2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4378,7 +4373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DE2" authorId="0" shapeId="0">
+    <comment ref="DE2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4394,7 +4389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DF2" authorId="0" shapeId="0">
+    <comment ref="DF2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4410,7 +4405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DG2" authorId="0" shapeId="0">
+    <comment ref="DG2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4426,7 +4421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DH2" authorId="0" shapeId="0">
+    <comment ref="DH2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4442,7 +4437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DI2" authorId="0" shapeId="0">
+    <comment ref="DI2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4458,7 +4453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DJ2" authorId="0" shapeId="0">
+    <comment ref="DJ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4474,7 +4469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DK2" authorId="0" shapeId="0">
+    <comment ref="DK2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4490,7 +4485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DL2" authorId="0" shapeId="0">
+    <comment ref="DL2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4506,7 +4501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DM2" authorId="0" shapeId="0">
+    <comment ref="DM2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4522,7 +4517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DN2" authorId="0" shapeId="0">
+    <comment ref="DN2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4538,7 +4533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DO2" authorId="0" shapeId="0">
+    <comment ref="DO2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4554,7 +4549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DP2" authorId="0" shapeId="0">
+    <comment ref="DP2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5856,20 +5851,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="187" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5908,7 +5903,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5916,12 +5911,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5961,6 +5956,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6045,7 +6052,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1"/>
@@ -6053,7 +6060,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6100,6 +6107,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="* Required" xfId="2"/>
@@ -6148,7 +6160,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6156,17 +6168,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6200,7 +6201,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6208,17 +6209,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7026,7 +7016,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7061,7 +7051,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7238,7 +7228,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7252,16 +7242,16 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="59.5703125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="25"/>
+    <col min="1" max="1" width="6.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="31.25" style="25" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="25" customWidth="1"/>
+    <col min="5" max="5" width="59.625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -7428,7 +7418,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7493,25 +7483,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="83.140625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="25" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="83.125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="44.75" style="25" customWidth="1"/>
     <col min="6" max="6" width="11" style="25" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="25" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="25"/>
+    <col min="7" max="7" width="9.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -7543,7 +7533,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -7572,7 +7562,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="34" t="s">
         <v>295</v>
       </c>
       <c r="E3" s="21"/>
@@ -7591,9 +7581,9 @@
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="35" t="s">
         <v>296</v>
       </c>
       <c r="E4" s="21"/>
@@ -7887,7 +7877,7 @@
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="36" t="s">
         <v>313</v>
       </c>
       <c r="E18" s="21"/>
@@ -7950,13 +7940,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A25:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7964,7 +7954,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -7975,7 +7965,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -7983,7 +7973,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -7991,7 +7981,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -7999,7 +7989,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -8007,22 +7997,22 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>330</v>
       </c>
@@ -8041,103 +8031,103 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.25" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.140625" customWidth="1"/>
-    <col min="62" max="62" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="68" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="76" max="79" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="80" max="88" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="90" max="98" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="100" max="108" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.125" customWidth="1"/>
+    <col min="62" max="62" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="64" max="68" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="72" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="76" max="79" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="80" max="88" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="90" max="98" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="100" max="108" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="6.625" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="22" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="19" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="18.125" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="5" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -8517,7 +8507,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:126" ht="36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:126" ht="36" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>18</v>
       </c>
@@ -8606,7 +8596,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8986,7 +8976,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:126" x14ac:dyDescent="0.2">
       <c r="CM5" s="12" t="s">
         <v>143</v>
       </c>
@@ -9030,7 +9020,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9130,7 +9120,7 @@
       </c>
       <c r="DU6" s="12"/>
     </row>
-    <row r="7" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -9230,7 +9220,7 @@
       </c>
       <c r="DU7" s="12"/>
     </row>
-    <row r="8" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -9330,7 +9320,7 @@
       </c>
       <c r="DU8" s="12"/>
     </row>
-    <row r="9" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -9430,7 +9420,7 @@
       </c>
       <c r="DU9" s="12"/>
     </row>
-    <row r="10" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -9530,7 +9520,7 @@
       </c>
       <c r="DU10" s="12"/>
     </row>
-    <row r="11" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -9630,7 +9620,7 @@
       </c>
       <c r="DU11" s="12"/>
     </row>
-    <row r="12" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -9730,19 +9720,19 @@
       </c>
       <c r="DU12" s="12"/>
     </row>
-    <row r="13" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:126" x14ac:dyDescent="0.2">
       <c r="DG13" s="12"/>
       <c r="DK13" s="12"/>
       <c r="DU13" s="12"/>
     </row>
-    <row r="14" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:126" x14ac:dyDescent="0.2">
       <c r="DG14" s="12"/>
       <c r="DU14" s="12"/>
     </row>
-    <row r="15" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:126" x14ac:dyDescent="0.2">
       <c r="DU15" s="12"/>
     </row>
-    <row r="16" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:126" x14ac:dyDescent="0.2">
       <c r="DU16" s="12"/>
     </row>
   </sheetData>
@@ -9767,55 +9757,55 @@
       <selection activeCell="CE30" sqref="CE30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="32" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="32" width="26.875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="28" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="42" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="53" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="62" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="72" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="82" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="85" max="93" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="94" max="114" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="42" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="53" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="54" max="62" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="64" max="72" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="74" max="82" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="85" max="93" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="114" width="29.375" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="10" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:120" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>152</v>
       </c>
@@ -9852,7 +9842,7 @@
       <c r="DJ1" s="16"/>
       <c r="DL1" s="17"/>
     </row>
-    <row r="2" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
@@ -10214,7 +10204,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
@@ -10296,7 +10286,7 @@
       <c r="DJ3" s="19"/>
       <c r="DL3" s="7"/>
     </row>
-    <row r="5" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>225</v>
       </c>
@@ -10362,7 +10352,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="D6" s="12"/>
@@ -10386,7 +10376,7 @@
       <c r="CK6" s="12"/>
       <c r="CL6" s="12"/>
     </row>
-    <row r="7" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="D7" s="12"/>
@@ -10410,7 +10400,7 @@
       <c r="CK7" s="12"/>
       <c r="CL7" s="12"/>
     </row>
-    <row r="8" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="D8" s="12"/>
@@ -10434,7 +10424,7 @@
       <c r="CK8" s="12"/>
       <c r="CL8" s="12"/>
     </row>
-    <row r="9" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="D9" s="12"/>
@@ -10458,7 +10448,7 @@
       <c r="CK9" s="12"/>
       <c r="CL9" s="12"/>
     </row>
-    <row r="10" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="D10" s="12"/>
@@ -10482,7 +10472,7 @@
       <c r="CK10" s="12"/>
       <c r="CL10" s="12"/>
     </row>
-    <row r="11" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="D11" s="12"/>
@@ -10506,7 +10496,7 @@
       <c r="CK11" s="12"/>
       <c r="CL11" s="12"/>
     </row>
-    <row r="12" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>12819282</v>
       </c>
@@ -10560,7 +10550,7 @@
       <c r="CK12" s="12"/>
       <c r="CL12" s="12"/>
     </row>
-    <row r="13" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>12819282</v>
       </c>
@@ -10614,7 +10604,7 @@
       <c r="CK13" s="12"/>
       <c r="CL13" s="12"/>
     </row>
-    <row r="14" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>12819282</v>
       </c>
@@ -10668,7 +10658,7 @@
       <c r="CK14" s="12"/>
       <c r="CL14" s="12"/>
     </row>
-    <row r="15" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>12819282</v>
       </c>
@@ -10722,7 +10712,7 @@
       <c r="CK15" s="12"/>
       <c r="CL15" s="12"/>
     </row>
-    <row r="16" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>12819282</v>
       </c>
@@ -10776,7 +10766,7 @@
       <c r="CK16" s="12"/>
       <c r="CL16" s="12"/>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>12819282</v>
       </c>
@@ -10830,7 +10820,7 @@
       <c r="CK17" s="12"/>
       <c r="CL17" s="12"/>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>12819282</v>
       </c>
@@ -10884,7 +10874,7 @@
       <c r="CK18" s="12"/>
       <c r="CL18" s="12"/>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>12819282</v>
       </c>
@@ -10938,7 +10928,7 @@
       <c r="CK19" s="12"/>
       <c r="CL19" s="12"/>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>12819282</v>
       </c>
@@ -10992,7 +10982,7 @@
       <c r="CK20" s="12"/>
       <c r="CL20" s="12"/>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>12819282</v>
       </c>
@@ -11046,7 +11036,7 @@
       <c r="CK21" s="12"/>
       <c r="CL21" s="12"/>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>12819282</v>
       </c>
@@ -11100,7 +11090,7 @@
       <c r="CK22" s="12"/>
       <c r="CL22" s="12"/>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>12819282</v>
       </c>
@@ -11154,7 +11144,7 @@
       <c r="CK23" s="12"/>
       <c r="CL23" s="12"/>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>12819282</v>
       </c>
@@ -11208,7 +11198,7 @@
       <c r="CK24" s="12"/>
       <c r="CL24" s="12"/>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>12819282</v>
       </c>
@@ -11262,7 +11252,7 @@
       <c r="CK25" s="12"/>
       <c r="CL25" s="12"/>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>12819282</v>
       </c>
@@ -11316,7 +11306,7 @@
       <c r="CK26" s="12"/>
       <c r="CL26" s="12"/>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>12819282</v>
       </c>
@@ -11370,7 +11360,7 @@
       <c r="CK27" s="12"/>
       <c r="CL27" s="12"/>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>12819282</v>
       </c>
@@ -11424,7 +11414,7 @@
       <c r="CK28" s="12"/>
       <c r="CL28" s="12"/>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>12819282</v>
       </c>
@@ -11478,7 +11468,7 @@
       <c r="CK29" s="12"/>
       <c r="CL29" s="12"/>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>12819282</v>
       </c>
@@ -11526,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>12819282</v>
       </c>
@@ -11574,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>12819282</v>
       </c>
@@ -11622,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>12819282</v>
       </c>
@@ -11670,7 +11660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>12819282</v>
       </c>
@@ -11718,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>12819282</v>
       </c>
@@ -11765,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>12819282</v>
       </c>
@@ -11812,7 +11802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>12819282</v>
       </c>
@@ -11859,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>12819282</v>
       </c>
@@ -11906,7 +11896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>12819282</v>
       </c>
@@ -11953,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>12819282</v>
       </c>
@@ -12000,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>12819282</v>
       </c>
@@ -12047,7 +12037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>12819282</v>
       </c>
@@ -12094,7 +12084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>12819282</v>
       </c>
@@ -12141,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>12819282</v>
       </c>
@@ -12188,7 +12178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>12819282</v>
       </c>
@@ -12235,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>12819282</v>
       </c>
@@ -12282,7 +12272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>12819282</v>
       </c>
@@ -12329,7 +12319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>12819282</v>
       </c>
@@ -12376,7 +12366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>12819282</v>
       </c>
@@ -12423,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>12819282</v>
       </c>
@@ -12470,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>12819282</v>
       </c>
@@ -12517,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>12819282</v>
       </c>
@@ -12564,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>12819282</v>
       </c>
@@ -12611,7 +12601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>12819282</v>
       </c>
@@ -12658,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>12819282</v>
       </c>
@@ -12705,7 +12695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>12819282</v>
       </c>
@@ -12752,7 +12742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>12819282</v>
       </c>
@@ -12799,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>12819282</v>
       </c>
@@ -12846,7 +12836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>12819282</v>
       </c>
@@ -12893,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>12819282</v>
       </c>
@@ -12940,7 +12930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>12819282</v>
       </c>
@@ -12987,7 +12977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>12819282</v>
       </c>
@@ -13034,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>1065792</v>
       </c>
@@ -13081,7 +13071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A64" s="12">
         <v>12819282</v>
       </c>
@@ -13128,7 +13118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>12819282</v>
       </c>
@@ -13175,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <v>12819282</v>
       </c>
@@ -13222,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>12819282</v>
       </c>
@@ -13269,7 +13259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
         <v>12819282</v>
       </c>
@@ -13316,7 +13306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>12819282</v>
       </c>
@@ -13363,7 +13353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
         <v>12819282</v>
       </c>
@@ -13410,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>12819282</v>
       </c>
@@ -13457,7 +13447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>12819282</v>
       </c>
@@ -13504,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>12819282</v>
       </c>
@@ -13551,7 +13541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
         <v>12819282</v>
       </c>
@@ -13598,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>12819282</v>
       </c>
@@ -13645,7 +13635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A76" s="12">
         <v>12819282</v>
       </c>
@@ -13692,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>12819282</v>
       </c>
@@ -13739,7 +13729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>12819282</v>
       </c>
@@ -13786,7 +13776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>12819282</v>
       </c>
@@ -13833,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A80" s="12">
         <v>12819282</v>
       </c>
@@ -13880,7 +13870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>12819282</v>
       </c>
@@ -13927,7 +13917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>12819282</v>
       </c>
@@ -13974,7 +13964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>12819282</v>
       </c>
@@ -14021,7 +14011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>12819282</v>
       </c>
@@ -14068,7 +14058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>12819282</v>
       </c>
@@ -14115,7 +14105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>12819282</v>
       </c>
@@ -14162,7 +14152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>12819282</v>
       </c>
@@ -14209,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>12819282</v>
       </c>
@@ -14256,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>12819282</v>
       </c>
@@ -14303,7 +14293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>12819282</v>
       </c>
@@ -14350,7 +14340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>12819282</v>
       </c>
@@ -14397,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>12819282</v>
       </c>
@@ -14444,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>12819282</v>
       </c>
@@ -14491,7 +14481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>12819282</v>
       </c>
@@ -14538,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>12819282</v>
       </c>
@@ -14585,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>12819282</v>
       </c>
@@ -14632,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>12819282</v>
       </c>
@@ -14679,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>12819282</v>
       </c>
@@ -14726,7 +14716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>12819282</v>
       </c>
@@ -14773,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>12819288</v>
       </c>
@@ -14820,7 +14810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>12819288</v>
       </c>
@@ -14867,7 +14857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>12819299</v>
       </c>
@@ -14914,7 +14904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>12819299</v>
       </c>
@@ -14961,7 +14951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>12819277</v>
       </c>
@@ -15008,7 +14998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>12819277</v>
       </c>
@@ -15055,7 +15045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>12819278</v>
       </c>
@@ -15102,7 +15092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>12819282</v>
       </c>
@@ -15149,7 +15139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>12819344</v>
       </c>
@@ -15196,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>12819418</v>
       </c>
@@ -15243,7 +15233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>12819419</v>
       </c>
@@ -15290,7 +15280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>12819420</v>
       </c>
@@ -15337,7 +15327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>12819421</v>
       </c>
@@ -15384,7 +15374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>12819422</v>
       </c>
@@ -15431,7 +15421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>12819423</v>
       </c>
@@ -15478,7 +15468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>12819424</v>
       </c>
@@ -15525,7 +15515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>12819425</v>
       </c>
@@ -15572,7 +15562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>12819425</v>
       </c>
@@ -15619,7 +15609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>12819288</v>
       </c>
@@ -15666,7 +15656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>12819288</v>
       </c>
@@ -15713,7 +15703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>12819299</v>
       </c>
@@ -15760,7 +15750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>12819299</v>
       </c>
@@ -15807,7 +15797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>12819277</v>
       </c>
@@ -15854,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>12819277</v>
       </c>
@@ -15901,7 +15891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>12819278</v>
       </c>
@@ -15948,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>12819282</v>
       </c>
@@ -15995,7 +15985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>12819344</v>
       </c>
@@ -16042,7 +16032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>12819418</v>
       </c>
@@ -16089,7 +16079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>12819419</v>
       </c>
@@ -16136,7 +16126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>12819420</v>
       </c>
@@ -16183,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>12819421</v>
       </c>
@@ -16230,7 +16220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>12819422</v>
       </c>
@@ -16277,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>12819423</v>
       </c>
@@ -16324,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>12819424</v>
       </c>
@@ -16371,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>12819425</v>
       </c>
@@ -16418,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>12819425</v>
       </c>
@@ -16465,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>12819277</v>
       </c>
@@ -16512,7 +16502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>12819277</v>
       </c>
@@ -16559,7 +16549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>12819278</v>
       </c>
@@ -16606,7 +16596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>12819282</v>
       </c>
@@ -16653,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>12819344</v>
       </c>
@@ -16700,7 +16690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>12819418</v>
       </c>
@@ -16747,7 +16737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>12819419</v>
       </c>
@@ -16794,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>12819420</v>
       </c>
@@ -16841,7 +16831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>12819421</v>
       </c>
@@ -16888,7 +16878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>12819422</v>
       </c>
@@ -16935,7 +16925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>12819423</v>
       </c>
@@ -16982,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>12819424</v>
       </c>
@@ -17029,7 +17019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>12819425</v>
       </c>
@@ -17076,7 +17066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>12819425</v>
       </c>
@@ -17123,7 +17113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>12819277</v>
       </c>
@@ -17170,7 +17160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>12819277</v>
       </c>
@@ -17217,7 +17207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>12819278</v>
       </c>
@@ -17264,7 +17254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>12819282</v>
       </c>
@@ -17311,7 +17301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>12819344</v>
       </c>
@@ -17358,7 +17348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>12819418</v>
       </c>
@@ -17405,7 +17395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>12819419</v>
       </c>
@@ -17452,7 +17442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>12819420</v>
       </c>
@@ -17499,7 +17489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>12819421</v>
       </c>
@@ -17546,7 +17536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>12819422</v>
       </c>
@@ -17593,7 +17583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>12819423</v>
       </c>
@@ -17640,7 +17630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>12819424</v>
       </c>
@@ -17687,7 +17677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>12819425</v>
       </c>
@@ -17734,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>12819425</v>
       </c>
@@ -17781,7 +17771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>12819277</v>
       </c>
@@ -17828,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>12819277</v>
       </c>
@@ -17875,7 +17865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>12819278</v>
       </c>
@@ -17922,7 +17912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>12819282</v>
       </c>
@@ -17969,7 +17959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>12819344</v>
       </c>
@@ -18016,7 +18006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>12819418</v>
       </c>
@@ -18063,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>12819419</v>
       </c>
@@ -18110,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>12819420</v>
       </c>
@@ -18157,7 +18147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>12819421</v>
       </c>
@@ -18204,7 +18194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>12819422</v>
       </c>
@@ -18251,7 +18241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>12819423</v>
       </c>
@@ -18298,7 +18288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>12819424</v>
       </c>
@@ -18345,7 +18335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>12819425</v>
       </c>
@@ -18392,7 +18382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>12819425</v>
       </c>
@@ -18439,7 +18429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>12819277</v>
       </c>
@@ -18486,7 +18476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>12819277</v>
       </c>
@@ -18533,7 +18523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>12819277</v>
       </c>
@@ -18580,7 +18570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>12819277</v>
       </c>
@@ -18627,7 +18617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>12819278</v>
       </c>
@@ -18674,7 +18664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>12819282</v>
       </c>
@@ -18721,7 +18711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>12819344</v>
       </c>
@@ -18768,7 +18758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>12819418</v>
       </c>
@@ -18815,7 +18805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>12819419</v>
       </c>
@@ -18862,7 +18852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>12819420</v>
       </c>
@@ -18909,7 +18899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>12819421</v>
       </c>
@@ -18956,7 +18946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>12819422</v>
       </c>
@@ -19003,7 +18993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>12819423</v>
       </c>
@@ -19050,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>12819424</v>
       </c>
@@ -19097,7 +19087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>12819425</v>
       </c>
@@ -19144,7 +19134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>12819425</v>
       </c>
@@ -19191,7 +19181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>12819277</v>
       </c>
@@ -19238,7 +19228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>12819277</v>
       </c>
@@ -19285,7 +19275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>12819278</v>
       </c>
@@ -19332,7 +19322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>12819282</v>
       </c>
@@ -19379,7 +19369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>12819344</v>
       </c>
@@ -19426,7 +19416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>12819418</v>
       </c>
@@ -19473,7 +19463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>12819419</v>
       </c>
@@ -19520,7 +19510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>12819420</v>
       </c>
@@ -19567,7 +19557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>12819421</v>
       </c>
@@ -19614,7 +19604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>12819422</v>
       </c>
@@ -19661,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>12819423</v>
       </c>
@@ -19708,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>12819424</v>
       </c>
@@ -19755,7 +19745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>12819425</v>
       </c>
@@ -19802,7 +19792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>12819425</v>
       </c>
@@ -19849,7 +19839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>12819278</v>
       </c>
@@ -19896,7 +19886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>12819282</v>
       </c>
@@ -19943,7 +19933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>12819344</v>
       </c>
@@ -19990,7 +19980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>12819418</v>
       </c>
@@ -20037,7 +20027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>12819419</v>
       </c>
@@ -20084,7 +20074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>12819420</v>
       </c>
@@ -20131,7 +20121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>12819421</v>
       </c>
@@ -20178,7 +20168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>12819422</v>
       </c>
@@ -20225,7 +20215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>12819423</v>
       </c>
@@ -20272,7 +20262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>12819424</v>
       </c>
@@ -20319,7 +20309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>12819425</v>
       </c>
@@ -20366,7 +20356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>12819425</v>
       </c>
@@ -20413,7 +20403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>12819277</v>
       </c>
@@ -20460,7 +20450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>12819277</v>
       </c>
@@ -20507,7 +20497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>12819278</v>
       </c>
@@ -20554,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>12819282</v>
       </c>
@@ -20601,7 +20591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>12819344</v>
       </c>
@@ -20648,7 +20638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>12819418</v>
       </c>
@@ -20695,7 +20685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>12819419</v>
       </c>
@@ -20742,7 +20732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>12819420</v>
       </c>
@@ -20789,7 +20779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>12819421</v>
       </c>
@@ -20836,7 +20826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>12819422</v>
       </c>
@@ -20883,7 +20873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>12819423</v>
       </c>
@@ -20930,7 +20920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>12819424</v>
       </c>
@@ -20977,7 +20967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>12819425</v>
       </c>
@@ -21024,7 +21014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>12819425</v>
       </c>
@@ -21071,7 +21061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>12819277</v>
       </c>
@@ -21118,7 +21108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>12819277</v>
       </c>
@@ -21165,7 +21155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>12819277</v>
       </c>
@@ -21212,7 +21202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>12819277</v>
       </c>
@@ -21259,7 +21249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>12819278</v>
       </c>
@@ -21306,7 +21296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>12819282</v>
       </c>
@@ -21353,7 +21343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>12819344</v>
       </c>
@@ -21400,7 +21390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>12819418</v>
       </c>
@@ -21447,7 +21437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>12819419</v>
       </c>
@@ -21494,7 +21484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>12819420</v>
       </c>
@@ -21541,7 +21531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>12819421</v>
       </c>
@@ -21588,7 +21578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>12819422</v>
       </c>
@@ -21635,7 +21625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>12819423</v>
       </c>
@@ -21682,7 +21672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>12819424</v>
       </c>
@@ -21729,7 +21719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>12819425</v>
       </c>
@@ -21776,7 +21766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>12819425</v>
       </c>
@@ -21823,7 +21813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>12819277</v>
       </c>
@@ -21870,7 +21860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>12819277</v>
       </c>
@@ -21917,7 +21907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>12819278</v>
       </c>
@@ -21964,7 +21954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>12819282</v>
       </c>
@@ -22011,7 +22001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>12819344</v>
       </c>
@@ -22058,7 +22048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>12819418</v>
       </c>
@@ -22105,7 +22095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>12819419</v>
       </c>
@@ -22152,7 +22142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>12819420</v>
       </c>
@@ -22199,7 +22189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>12819421</v>
       </c>
@@ -22246,7 +22236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>12819422</v>
       </c>
@@ -22293,7 +22283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>12819423</v>
       </c>
@@ -22340,7 +22330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>12819424</v>
       </c>
@@ -22387,7 +22377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>12819425</v>
       </c>
@@ -22434,7 +22424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>12819425</v>
       </c>
@@ -22481,7 +22471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>12819278</v>
       </c>
@@ -22528,7 +22518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>12819282</v>
       </c>
@@ -22575,7 +22565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>12819344</v>
       </c>
@@ -22622,7 +22612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>12819418</v>
       </c>
@@ -22669,7 +22659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>12819419</v>
       </c>
@@ -22716,7 +22706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>12819420</v>
       </c>
@@ -22763,7 +22753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>12819421</v>
       </c>
@@ -22810,7 +22800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>12819422</v>
       </c>
@@ -22857,7 +22847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>12819423</v>
       </c>
@@ -22904,7 +22894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>12819424</v>
       </c>
@@ -22951,7 +22941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>12819425</v>
       </c>
@@ -22998,7 +22988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>12819425</v>
       </c>
@@ -23045,7 +23035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>12819277</v>
       </c>
@@ -23092,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>12819277</v>
       </c>
@@ -23139,7 +23129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>12819278</v>
       </c>
@@ -23186,7 +23176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>12819282</v>
       </c>
@@ -23233,7 +23223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>12819344</v>
       </c>
@@ -23280,7 +23270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>12819418</v>
       </c>
@@ -23327,7 +23317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>12819419</v>
       </c>
@@ -23374,7 +23364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>12819420</v>
       </c>
@@ -23421,7 +23411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>12819421</v>
       </c>
@@ -23468,7 +23458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>12819422</v>
       </c>
@@ -23515,7 +23505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>12819423</v>
       </c>
@@ -23562,7 +23552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>12819424</v>
       </c>
@@ -23609,7 +23599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>12819425</v>
       </c>
@@ -23656,7 +23646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>12819425</v>
       </c>
@@ -23703,7 +23693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>12819277</v>
       </c>
@@ -23750,7 +23740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>12819277</v>
       </c>
@@ -23797,7 +23787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>12819278</v>
       </c>
@@ -23844,7 +23834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>12819282</v>
       </c>
@@ -23891,7 +23881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>12819344</v>
       </c>
@@ -23938,7 +23928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>12819418</v>
       </c>
@@ -23985,7 +23975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>12819419</v>
       </c>
@@ -24032,7 +24022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>12819420</v>
       </c>
@@ -24079,7 +24069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>12819421</v>
       </c>
@@ -24126,7 +24116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>12819422</v>
       </c>
@@ -24173,7 +24163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>12819423</v>
       </c>
@@ -24220,7 +24210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>12819424</v>
       </c>
@@ -24267,7 +24257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>12819425</v>
       </c>
@@ -24314,7 +24304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>12819425</v>
       </c>
@@ -24361,7 +24351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>12819277</v>
       </c>
@@ -24408,7 +24398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>12819277</v>
       </c>
@@ -24455,7 +24445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>12819278</v>
       </c>
@@ -24502,7 +24492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>12819282</v>
       </c>
@@ -24549,7 +24539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>12819344</v>
       </c>
@@ -24596,7 +24586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>12819418</v>
       </c>
@@ -24643,7 +24633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>12819419</v>
       </c>
@@ -24690,7 +24680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>12819420</v>
       </c>
@@ -24737,7 +24727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>12819421</v>
       </c>
@@ -24784,7 +24774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>12819422</v>
       </c>
@@ -24831,7 +24821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>12819423</v>
       </c>
@@ -24878,7 +24868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>12819424</v>
       </c>
@@ -24925,7 +24915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>12819425</v>
       </c>
@@ -24972,7 +24962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>12819425</v>
       </c>
@@ -25019,7 +25009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>12819277</v>
       </c>
@@ -25066,7 +25056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>12819277</v>
       </c>
@@ -25113,7 +25103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>12819277</v>
       </c>
@@ -25160,7 +25150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>12819277</v>
       </c>
@@ -25207,7 +25197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>12819278</v>
       </c>
@@ -25254,7 +25244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>12819282</v>
       </c>
@@ -25301,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>12819344</v>
       </c>
@@ -25348,7 +25338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>12819418</v>
       </c>
@@ -25395,7 +25385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>12819419</v>
       </c>
@@ -25442,7 +25432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>12819420</v>
       </c>
@@ -25489,7 +25479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>12819421</v>
       </c>
@@ -25536,7 +25526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>12819422</v>
       </c>
@@ -25583,7 +25573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>12819423</v>
       </c>
@@ -25630,7 +25620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>12819424</v>
       </c>
@@ -25677,7 +25667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>12819425</v>
       </c>
@@ -25724,7 +25714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>12819425</v>
       </c>
@@ -25771,7 +25761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>12819277</v>
       </c>
@@ -25818,7 +25808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>12819277</v>
       </c>
@@ -25865,7 +25855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>12819278</v>
       </c>
@@ -25912,7 +25902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>12819282</v>
       </c>
@@ -25959,7 +25949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>12819344</v>
       </c>
@@ -26006,7 +25996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>12819418</v>
       </c>
@@ -26053,7 +26043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>12819419</v>
       </c>
@@ -26100,7 +26090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>12819420</v>
       </c>
@@ -26147,7 +26137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>12819421</v>
       </c>
@@ -26194,7 +26184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>12819422</v>
       </c>
@@ -26241,7 +26231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>12819423</v>
       </c>
@@ -26288,7 +26278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>12819424</v>
       </c>
@@ -26335,7 +26325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>12819425</v>
       </c>
@@ -26382,7 +26372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>12819425</v>
       </c>
@@ -26429,7 +26419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>12819278</v>
       </c>
@@ -26476,7 +26466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>12819282</v>
       </c>
@@ -26523,7 +26513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>12819344</v>
       </c>
@@ -26570,7 +26560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>12819418</v>
       </c>
@@ -26617,7 +26607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>12819419</v>
       </c>
@@ -26664,7 +26654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>12819420</v>
       </c>
@@ -26711,7 +26701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>12819421</v>
       </c>
@@ -26758,7 +26748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>12819422</v>
       </c>
@@ -26805,7 +26795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>12819423</v>
       </c>
@@ -26852,7 +26842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>12819424</v>
       </c>
@@ -26899,7 +26889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>12819425</v>
       </c>
@@ -26946,7 +26936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>12819425</v>
       </c>
@@ -26993,7 +26983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>12819277</v>
       </c>
@@ -27040,7 +27030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>12819277</v>
       </c>
@@ -27087,7 +27077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>12819278</v>
       </c>
@@ -27134,7 +27124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>12819282</v>
       </c>
@@ -27181,7 +27171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>12819344</v>
       </c>
@@ -27228,7 +27218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>12819418</v>
       </c>
@@ -27275,7 +27265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>12819419</v>
       </c>
@@ -27322,7 +27312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>12819420</v>
       </c>
@@ -27369,7 +27359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>12819421</v>
       </c>
@@ -27416,7 +27406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>12819422</v>
       </c>
@@ -27463,7 +27453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>12819423</v>
       </c>
@@ -27510,7 +27500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>12819424</v>
       </c>
@@ -27557,7 +27547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>12819425</v>
       </c>
@@ -27604,7 +27594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>12819425</v>
       </c>
@@ -27651,7 +27641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>12819277</v>
       </c>
@@ -27698,7 +27688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>12819277</v>
       </c>
@@ -27745,7 +27735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>12819277</v>
       </c>
@@ -27792,7 +27782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>12819277</v>
       </c>
@@ -27839,7 +27829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>12819278</v>
       </c>
@@ -27886,7 +27876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>12819282</v>
       </c>
@@ -27933,7 +27923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>12819344</v>
       </c>
@@ -27980,7 +27970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>12819418</v>
       </c>
@@ -28027,7 +28017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>12819419</v>
       </c>
@@ -28074,7 +28064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>12819420</v>
       </c>
@@ -28121,7 +28111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>12819421</v>
       </c>
@@ -28168,7 +28158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>12819422</v>
       </c>
@@ -28215,7 +28205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>12819423</v>
       </c>
@@ -28262,7 +28252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>12819424</v>
       </c>
@@ -28309,7 +28299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>12819425</v>
       </c>
@@ -28356,7 +28346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>12819425</v>
       </c>
@@ -28403,7 +28393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>12819278</v>
       </c>
@@ -28450,7 +28440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>12819282</v>
       </c>
@@ -28497,7 +28487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>12819344</v>
       </c>
@@ -28544,7 +28534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>12819418</v>
       </c>
@@ -28591,7 +28581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>12819419</v>
       </c>
@@ -28638,7 +28628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>12819420</v>
       </c>
@@ -28685,7 +28675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>12819421</v>
       </c>
@@ -28732,7 +28722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>12819422</v>
       </c>
@@ -28779,7 +28769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>12819423</v>
       </c>
@@ -28826,7 +28816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>12819424</v>
       </c>
@@ -28873,7 +28863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>12819425</v>
       </c>
@@ -28920,7 +28910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>12819425</v>
       </c>
@@ -28967,7 +28957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>12819277</v>
       </c>
@@ -29014,7 +29004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>12819277</v>
       </c>
@@ -29061,7 +29051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>12819278</v>
       </c>
@@ -29108,7 +29098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>12819282</v>
       </c>
@@ -29155,7 +29145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>12819344</v>
       </c>
@@ -29202,7 +29192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>12819418</v>
       </c>
@@ -29249,7 +29239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>12819419</v>
       </c>
@@ -29296,7 +29286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>12819420</v>
       </c>
@@ -29343,7 +29333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>12819421</v>
       </c>
@@ -29390,7 +29380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>12819422</v>
       </c>
@@ -29437,7 +29427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>12819423</v>
       </c>
@@ -29484,7 +29474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>12819424</v>
       </c>
@@ -29531,7 +29521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>12819425</v>
       </c>
@@ -29578,7 +29568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>12819425</v>
       </c>
@@ -29625,7 +29615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>12819277</v>
       </c>
@@ -29672,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>12819277</v>
       </c>
@@ -29719,7 +29709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>12819278</v>
       </c>
@@ -29766,7 +29756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>12819282</v>
       </c>
@@ -29813,7 +29803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>12819344</v>
       </c>
@@ -29860,7 +29850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>12819418</v>
       </c>
@@ -29907,7 +29897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>12819419</v>
       </c>
@@ -29954,7 +29944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>12819420</v>
       </c>
@@ -30001,7 +29991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>12819421</v>
       </c>
@@ -30048,7 +30038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>12819422</v>
       </c>
@@ -30095,7 +30085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>12819423</v>
       </c>
@@ -30142,7 +30132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>12819424</v>
       </c>
@@ -30189,7 +30179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>12819425</v>
       </c>
@@ -30236,7 +30226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>12819425</v>
       </c>
@@ -30283,7 +30273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>12819277</v>
       </c>
@@ -30330,7 +30320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>12819277</v>
       </c>
@@ -30377,7 +30367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>12819278</v>
       </c>
@@ -30424,7 +30414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>12819282</v>
       </c>
@@ -30471,7 +30461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>12819344</v>
       </c>
@@ -30518,7 +30508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>12819418</v>
       </c>
@@ -30565,7 +30555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>12819419</v>
       </c>
@@ -30612,7 +30602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>12819420</v>
       </c>
@@ -30659,7 +30649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>12819421</v>
       </c>
@@ -30706,7 +30696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>12819422</v>
       </c>
@@ -30753,7 +30743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>12819423</v>
       </c>
@@ -30800,7 +30790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>12819424</v>
       </c>
@@ -30847,7 +30837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>12819425</v>
       </c>
@@ -30894,7 +30884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>12819425</v>
       </c>
@@ -30941,7 +30931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>12819277</v>
       </c>
@@ -30988,7 +30978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>12819277</v>
       </c>
@@ -31035,7 +31025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>12819278</v>
       </c>
@@ -31082,7 +31072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>12819282</v>
       </c>
@@ -31129,7 +31119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>12819344</v>
       </c>
@@ -31176,7 +31166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>12819418</v>
       </c>
@@ -31223,7 +31213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>12819419</v>
       </c>
@@ -31270,7 +31260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>12819420</v>
       </c>
@@ -31317,7 +31307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>12819421</v>
       </c>
@@ -31364,7 +31354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>12819422</v>
       </c>
@@ -31411,7 +31401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>12819423</v>
       </c>
@@ -31458,7 +31448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>12819424</v>
       </c>
@@ -31505,7 +31495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>12819425</v>
       </c>
@@ -31552,7 +31542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>12819425</v>
       </c>

--- a/XCustPr/doc/60-12-18/PO006_UNIT_TEST_RESULT_60-12-18.xlsx
+++ b/XCustPr/doc/60-12-18/PO006_UNIT_TEST_RESULT_60-12-18.xlsx
@@ -19,7 +19,7 @@
     <definedName name="PorReqDistInterfaceAl" localSheetId="5">distribute6!$A$12:$DP$457</definedName>
     <definedName name="PorReqLinesInterfaceAl" localSheetId="4">line_6!$A$6:$DL$12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5851,20 +5851,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5903,7 +5903,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5911,7 +5911,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6060,7 +6060,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7228,7 +7228,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7242,16 +7242,16 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="31.25" style="25" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="25" customWidth="1"/>
-    <col min="5" max="5" width="59.625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="25"/>
+    <col min="1" max="1" width="6.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="59.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -7418,7 +7418,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7484,24 +7484,24 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="25" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="83.125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="44.75" style="25" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="83.140625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" style="25" customWidth="1"/>
     <col min="6" max="6" width="11" style="25" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="25" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="25"/>
+    <col min="7" max="7" width="9.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -7533,7 +7533,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -7688,7 +7688,7 @@
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="36" t="s">
         <v>301</v>
       </c>
       <c r="E9" s="22"/>
@@ -7730,7 +7730,7 @@
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="27"/>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="35" t="s">
         <v>302</v>
       </c>
       <c r="E11" s="21"/>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="34" t="s">
         <v>310</v>
       </c>
       <c r="E15" s="21"/>
@@ -7944,9 +7944,9 @@
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -7997,22 +7997,22 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>330</v>
       </c>
@@ -8031,103 +8031,103 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="42.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="33.125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.125" customWidth="1"/>
-    <col min="62" max="62" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="64" max="68" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="69" max="72" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="76" max="79" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="80" max="88" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="90" max="98" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="100" max="108" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.140625" customWidth="1"/>
+    <col min="62" max="62" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="68" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="79" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="80" max="88" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="98" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="100" max="108" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="22" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="19" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="5" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:126" ht="36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:126" ht="36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>18</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:126" x14ac:dyDescent="0.25">
       <c r="CM5" s="12" t="s">
         <v>143</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9120,7 +9120,7 @@
       </c>
       <c r="DU6" s="12"/>
     </row>
-    <row r="7" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="DU7" s="12"/>
     </row>
-    <row r="8" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -9320,7 +9320,7 @@
       </c>
       <c r="DU8" s="12"/>
     </row>
-    <row r="9" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="DU9" s="12"/>
     </row>
-    <row r="10" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -9520,7 +9520,7 @@
       </c>
       <c r="DU10" s="12"/>
     </row>
-    <row r="11" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -9620,7 +9620,7 @@
       </c>
       <c r="DU11" s="12"/>
     </row>
-    <row r="12" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -9720,19 +9720,19 @@
       </c>
       <c r="DU12" s="12"/>
     </row>
-    <row r="13" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:126" x14ac:dyDescent="0.25">
       <c r="DG13" s="12"/>
       <c r="DK13" s="12"/>
       <c r="DU13" s="12"/>
     </row>
-    <row r="14" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:126" x14ac:dyDescent="0.25">
       <c r="DG14" s="12"/>
       <c r="DU14" s="12"/>
     </row>
-    <row r="15" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:126" x14ac:dyDescent="0.25">
       <c r="DU15" s="12"/>
     </row>
-    <row r="16" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:126" x14ac:dyDescent="0.25">
       <c r="DU16" s="12"/>
     </row>
   </sheetData>
@@ -9757,55 +9757,55 @@
       <selection activeCell="CE30" sqref="CE30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="32" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="32" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="28" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="38" max="42" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="50" max="53" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="54" max="62" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="64" max="72" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="74" max="82" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="85" max="93" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="94" max="114" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="42" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="53" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="62" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="72" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="82" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="93" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="114" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="10" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:120" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>152</v>
       </c>
@@ -9842,7 +9842,7 @@
       <c r="DJ1" s="16"/>
       <c r="DL1" s="17"/>
     </row>
-    <row r="2" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>18</v>
       </c>
@@ -10286,7 +10286,7 @@
       <c r="DJ3" s="19"/>
       <c r="DL3" s="7"/>
     </row>
-    <row r="5" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>225</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="D6" s="12"/>
@@ -10376,7 +10376,7 @@
       <c r="CK6" s="12"/>
       <c r="CL6" s="12"/>
     </row>
-    <row r="7" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="D7" s="12"/>
@@ -10400,7 +10400,7 @@
       <c r="CK7" s="12"/>
       <c r="CL7" s="12"/>
     </row>
-    <row r="8" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="D8" s="12"/>
@@ -10424,7 +10424,7 @@
       <c r="CK8" s="12"/>
       <c r="CL8" s="12"/>
     </row>
-    <row r="9" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="D9" s="12"/>
@@ -10448,7 +10448,7 @@
       <c r="CK9" s="12"/>
       <c r="CL9" s="12"/>
     </row>
-    <row r="10" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="D10" s="12"/>
@@ -10472,7 +10472,7 @@
       <c r="CK10" s="12"/>
       <c r="CL10" s="12"/>
     </row>
-    <row r="11" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="D11" s="12"/>
@@ -10496,7 +10496,7 @@
       <c r="CK11" s="12"/>
       <c r="CL11" s="12"/>
     </row>
-    <row r="12" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>12819282</v>
       </c>
@@ -10550,7 +10550,7 @@
       <c r="CK12" s="12"/>
       <c r="CL12" s="12"/>
     </row>
-    <row r="13" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12819282</v>
       </c>
@@ -10604,7 +10604,7 @@
       <c r="CK13" s="12"/>
       <c r="CL13" s="12"/>
     </row>
-    <row r="14" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12819282</v>
       </c>
@@ -10658,7 +10658,7 @@
       <c r="CK14" s="12"/>
       <c r="CL14" s="12"/>
     </row>
-    <row r="15" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>12819282</v>
       </c>
@@ -10712,7 +10712,7 @@
       <c r="CK15" s="12"/>
       <c r="CL15" s="12"/>
     </row>
-    <row r="16" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>12819282</v>
       </c>
@@ -10766,7 +10766,7 @@
       <c r="CK16" s="12"/>
       <c r="CL16" s="12"/>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>12819282</v>
       </c>
@@ -10820,7 +10820,7 @@
       <c r="CK17" s="12"/>
       <c r="CL17" s="12"/>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>12819282</v>
       </c>
@@ -10874,7 +10874,7 @@
       <c r="CK18" s="12"/>
       <c r="CL18" s="12"/>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>12819282</v>
       </c>
@@ -10928,7 +10928,7 @@
       <c r="CK19" s="12"/>
       <c r="CL19" s="12"/>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>12819282</v>
       </c>
@@ -10982,7 +10982,7 @@
       <c r="CK20" s="12"/>
       <c r="CL20" s="12"/>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>12819282</v>
       </c>
@@ -11036,7 +11036,7 @@
       <c r="CK21" s="12"/>
       <c r="CL21" s="12"/>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>12819282</v>
       </c>
@@ -11090,7 +11090,7 @@
       <c r="CK22" s="12"/>
       <c r="CL22" s="12"/>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>12819282</v>
       </c>
@@ -11144,7 +11144,7 @@
       <c r="CK23" s="12"/>
       <c r="CL23" s="12"/>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>12819282</v>
       </c>
@@ -11198,7 +11198,7 @@
       <c r="CK24" s="12"/>
       <c r="CL24" s="12"/>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>12819282</v>
       </c>
@@ -11252,7 +11252,7 @@
       <c r="CK25" s="12"/>
       <c r="CL25" s="12"/>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>12819282</v>
       </c>
@@ -11306,7 +11306,7 @@
       <c r="CK26" s="12"/>
       <c r="CL26" s="12"/>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>12819282</v>
       </c>
@@ -11360,7 +11360,7 @@
       <c r="CK27" s="12"/>
       <c r="CL27" s="12"/>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>12819282</v>
       </c>
@@ -11414,7 +11414,7 @@
       <c r="CK28" s="12"/>
       <c r="CL28" s="12"/>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>12819282</v>
       </c>
@@ -11468,7 +11468,7 @@
       <c r="CK29" s="12"/>
       <c r="CL29" s="12"/>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>12819282</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>12819282</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>12819282</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>12819282</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>12819282</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>12819282</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>12819282</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>12819282</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>12819282</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>12819282</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>12819282</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>12819282</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>12819282</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>12819282</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>12819282</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>12819282</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>12819282</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>12819282</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>12819282</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>12819282</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>12819282</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>12819282</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>12819282</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>12819282</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>12819282</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>12819282</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>12819282</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>12819282</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>12819282</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>12819282</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>12819282</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>12819282</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>12819282</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>1065792</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>12819282</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>12819282</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>12819282</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>12819282</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>12819282</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>12819282</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>12819282</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>12819282</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>12819282</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>12819282</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>12819282</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>12819282</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>12819282</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>12819282</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>12819282</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>12819282</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>12819282</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>12819282</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>12819282</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>12819282</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>12819282</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>12819282</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>12819282</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>12819282</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>12819282</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>12819282</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>12819282</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>12819282</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>12819282</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>12819282</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>12819282</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>12819282</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>12819282</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>12819282</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>12819282</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>12819282</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>12819288</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>12819288</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>12819299</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12819299</v>
       </c>
@@ -14951,7 +14951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>12819277</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>12819277</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>12819278</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>12819282</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>12819344</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>12819418</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>12819419</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>12819420</v>
       </c>
@@ -15327,7 +15327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>12819421</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>12819422</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>12819423</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>12819424</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>12819425</v>
       </c>
@@ -15562,7 +15562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>12819425</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>12819288</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>12819288</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>12819299</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>12819299</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>12819277</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>12819277</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>12819278</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>12819282</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>12819344</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>12819418</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>12819419</v>
       </c>
@@ -16126,7 +16126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>12819420</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>12819421</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>12819422</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>12819423</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>12819424</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>12819425</v>
       </c>
@@ -16408,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>12819425</v>
       </c>
@@ -16455,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>12819277</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>12819277</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>12819278</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>12819282</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>12819344</v>
       </c>
@@ -16690,7 +16690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>12819418</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>12819419</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>12819420</v>
       </c>
@@ -16831,7 +16831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>12819421</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>12819422</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>12819423</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>12819424</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>12819425</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>12819425</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>12819277</v>
       </c>
@@ -17160,7 +17160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>12819277</v>
       </c>
@@ -17207,7 +17207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>12819278</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>12819282</v>
       </c>
@@ -17301,7 +17301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>12819344</v>
       </c>
@@ -17348,7 +17348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>12819418</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>12819419</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>12819420</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>12819421</v>
       </c>
@@ -17536,7 +17536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>12819422</v>
       </c>
@@ -17583,7 +17583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>12819423</v>
       </c>
@@ -17630,7 +17630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>12819424</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>12819425</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>12819425</v>
       </c>
@@ -17771,7 +17771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>12819277</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>12819277</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>12819278</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>12819282</v>
       </c>
@@ -17959,7 +17959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>12819344</v>
       </c>
@@ -18006,7 +18006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>12819418</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>12819419</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>12819420</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>12819421</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>12819422</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>12819423</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>12819424</v>
       </c>
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>12819425</v>
       </c>
@@ -18382,7 +18382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>12819425</v>
       </c>
@@ -18429,7 +18429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>12819277</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>12819277</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>12819277</v>
       </c>
@@ -18570,7 +18570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>12819277</v>
       </c>
@@ -18617,7 +18617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>12819278</v>
       </c>
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>12819282</v>
       </c>
@@ -18711,7 +18711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>12819344</v>
       </c>
@@ -18758,7 +18758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>12819418</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>12819419</v>
       </c>
@@ -18852,7 +18852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>12819420</v>
       </c>
@@ -18899,7 +18899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>12819421</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>12819422</v>
       </c>
@@ -18993,7 +18993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12819423</v>
       </c>
@@ -19040,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>12819424</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>12819425</v>
       </c>
@@ -19134,7 +19134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>12819425</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>12819277</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>12819277</v>
       </c>
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>12819278</v>
       </c>
@@ -19322,7 +19322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>12819282</v>
       </c>
@@ -19369,7 +19369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>12819344</v>
       </c>
@@ -19416,7 +19416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>12819418</v>
       </c>
@@ -19463,7 +19463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>12819419</v>
       </c>
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>12819420</v>
       </c>
@@ -19557,7 +19557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>12819421</v>
       </c>
@@ -19604,7 +19604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>12819422</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>12819423</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>12819424</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>12819425</v>
       </c>
@@ -19792,7 +19792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>12819425</v>
       </c>
@@ -19839,7 +19839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>12819278</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>12819282</v>
       </c>
@@ -19933,7 +19933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>12819344</v>
       </c>
@@ -19980,7 +19980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>12819418</v>
       </c>
@@ -20027,7 +20027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>12819419</v>
       </c>
@@ -20074,7 +20074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>12819420</v>
       </c>
@@ -20121,7 +20121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>12819421</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>12819422</v>
       </c>
@@ -20215,7 +20215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>12819423</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>12819424</v>
       </c>
@@ -20309,7 +20309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>12819425</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>12819425</v>
       </c>
@@ -20403,7 +20403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>12819277</v>
       </c>
@@ -20450,7 +20450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>12819277</v>
       </c>
@@ -20497,7 +20497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>12819278</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>12819282</v>
       </c>
@@ -20591,7 +20591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>12819344</v>
       </c>
@@ -20638,7 +20638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>12819418</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>12819419</v>
       </c>
@@ -20732,7 +20732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>12819420</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>12819421</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>12819422</v>
       </c>
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>12819423</v>
       </c>
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>12819424</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>12819425</v>
       </c>
@@ -21014,7 +21014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>12819425</v>
       </c>
@@ -21061,7 +21061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>12819277</v>
       </c>
@@ -21108,7 +21108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>12819277</v>
       </c>
@@ -21155,7 +21155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>12819277</v>
       </c>
@@ -21202,7 +21202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>12819277</v>
       </c>
@@ -21249,7 +21249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>12819278</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>12819282</v>
       </c>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>12819344</v>
       </c>
@@ -21390,7 +21390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>12819418</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>12819419</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>12819420</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>12819421</v>
       </c>
@@ -21578,7 +21578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>12819422</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>12819423</v>
       </c>
@@ -21672,7 +21672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>12819424</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>12819425</v>
       </c>
@@ -21766,7 +21766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>12819425</v>
       </c>
@@ -21813,7 +21813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>12819277</v>
       </c>
@@ -21860,7 +21860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>12819277</v>
       </c>
@@ -21907,7 +21907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>12819278</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>12819282</v>
       </c>
@@ -22001,7 +22001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>12819344</v>
       </c>
@@ -22048,7 +22048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>12819418</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>12819419</v>
       </c>
@@ -22142,7 +22142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>12819420</v>
       </c>
@@ -22189,7 +22189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>12819421</v>
       </c>
@@ -22236,7 +22236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>12819422</v>
       </c>
@@ -22283,7 +22283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>12819423</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>12819424</v>
       </c>
@@ -22377,7 +22377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>12819425</v>
       </c>
@@ -22424,7 +22424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>12819425</v>
       </c>
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>12819278</v>
       </c>
@@ -22518,7 +22518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>12819282</v>
       </c>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>12819344</v>
       </c>
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>12819418</v>
       </c>
@@ -22659,7 +22659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>12819419</v>
       </c>
@@ -22706,7 +22706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>12819420</v>
       </c>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>12819421</v>
       </c>
@@ -22800,7 +22800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>12819422</v>
       </c>
@@ -22847,7 +22847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>12819423</v>
       </c>
@@ -22894,7 +22894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>12819424</v>
       </c>
@@ -22941,7 +22941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>12819425</v>
       </c>
@@ -22988,7 +22988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>12819425</v>
       </c>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>12819277</v>
       </c>
@@ -23082,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>12819277</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>12819278</v>
       </c>
@@ -23176,7 +23176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>12819282</v>
       </c>
@@ -23223,7 +23223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>12819344</v>
       </c>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>12819418</v>
       </c>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>12819419</v>
       </c>
@@ -23364,7 +23364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>12819420</v>
       </c>
@@ -23411,7 +23411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>12819421</v>
       </c>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>12819422</v>
       </c>
@@ -23505,7 +23505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>12819423</v>
       </c>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>12819424</v>
       </c>
@@ -23599,7 +23599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>12819425</v>
       </c>
@@ -23646,7 +23646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>12819425</v>
       </c>
@@ -23693,7 +23693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>12819277</v>
       </c>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>12819277</v>
       </c>
@@ -23787,7 +23787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>12819278</v>
       </c>
@@ -23834,7 +23834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>12819282</v>
       </c>
@@ -23881,7 +23881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>12819344</v>
       </c>
@@ -23928,7 +23928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>12819418</v>
       </c>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>12819419</v>
       </c>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>12819420</v>
       </c>
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>12819421</v>
       </c>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>12819422</v>
       </c>
@@ -24163,7 +24163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>12819423</v>
       </c>
@@ -24210,7 +24210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>12819424</v>
       </c>
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>12819425</v>
       </c>
@@ -24304,7 +24304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>12819425</v>
       </c>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>12819277</v>
       </c>
@@ -24398,7 +24398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>12819277</v>
       </c>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>12819278</v>
       </c>
@@ -24492,7 +24492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>12819282</v>
       </c>
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>12819344</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>12819418</v>
       </c>
@@ -24633,7 +24633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>12819419</v>
       </c>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>12819420</v>
       </c>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>12819421</v>
       </c>
@@ -24774,7 +24774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>12819422</v>
       </c>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>12819423</v>
       </c>
@@ -24868,7 +24868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>12819424</v>
       </c>
@@ -24915,7 +24915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>12819425</v>
       </c>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>12819425</v>
       </c>
@@ -25009,7 +25009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>12819277</v>
       </c>
@@ -25056,7 +25056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>12819277</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>12819277</v>
       </c>
@@ -25150,7 +25150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>12819277</v>
       </c>
@@ -25197,7 +25197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>12819278</v>
       </c>
@@ -25244,7 +25244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>12819282</v>
       </c>
@@ -25291,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>12819344</v>
       </c>
@@ -25338,7 +25338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>12819418</v>
       </c>
@@ -25385,7 +25385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>12819419</v>
       </c>
@@ -25432,7 +25432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>12819420</v>
       </c>
@@ -25479,7 +25479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>12819421</v>
       </c>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>12819422</v>
       </c>
@@ -25573,7 +25573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>12819423</v>
       </c>
@@ -25620,7 +25620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>12819424</v>
       </c>
@@ -25667,7 +25667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>12819425</v>
       </c>
@@ -25714,7 +25714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>12819425</v>
       </c>
@@ -25761,7 +25761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>12819277</v>
       </c>
@@ -25808,7 +25808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>12819277</v>
       </c>
@@ -25855,7 +25855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>12819278</v>
       </c>
@@ -25902,7 +25902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>12819282</v>
       </c>
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>12819344</v>
       </c>
@@ -25996,7 +25996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>12819418</v>
       </c>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>12819419</v>
       </c>
@@ -26090,7 +26090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>12819420</v>
       </c>
@@ -26137,7 +26137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>12819421</v>
       </c>
@@ -26184,7 +26184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>12819422</v>
       </c>
@@ -26231,7 +26231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>12819423</v>
       </c>
@@ -26278,7 +26278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>12819424</v>
       </c>
@@ -26325,7 +26325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>12819425</v>
       </c>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>12819425</v>
       </c>
@@ -26419,7 +26419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>12819278</v>
       </c>
@@ -26466,7 +26466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>12819282</v>
       </c>
@@ -26513,7 +26513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>12819344</v>
       </c>
@@ -26560,7 +26560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>12819418</v>
       </c>
@@ -26607,7 +26607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>12819419</v>
       </c>
@@ -26654,7 +26654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>12819420</v>
       </c>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>12819421</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>12819422</v>
       </c>
@@ -26795,7 +26795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>12819423</v>
       </c>
@@ -26842,7 +26842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>12819424</v>
       </c>
@@ -26889,7 +26889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>12819425</v>
       </c>
@@ -26936,7 +26936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>12819425</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>12819277</v>
       </c>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>12819277</v>
       </c>
@@ -27077,7 +27077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>12819278</v>
       </c>
@@ -27124,7 +27124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>12819282</v>
       </c>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>12819344</v>
       </c>
@@ -27218,7 +27218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>12819418</v>
       </c>
@@ -27265,7 +27265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>12819419</v>
       </c>
@@ -27312,7 +27312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>12819420</v>
       </c>
@@ -27359,7 +27359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>12819421</v>
       </c>
@@ -27406,7 +27406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>12819422</v>
       </c>
@@ -27453,7 +27453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>12819423</v>
       </c>
@@ -27500,7 +27500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>12819424</v>
       </c>
@@ -27547,7 +27547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>12819425</v>
       </c>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>12819425</v>
       </c>
@@ -27641,7 +27641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>12819277</v>
       </c>
@@ -27688,7 +27688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>12819277</v>
       </c>
@@ -27735,7 +27735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>12819277</v>
       </c>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>12819277</v>
       </c>
@@ -27829,7 +27829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>12819278</v>
       </c>
@@ -27876,7 +27876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>12819282</v>
       </c>
@@ -27923,7 +27923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>12819344</v>
       </c>
@@ -27970,7 +27970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>12819418</v>
       </c>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>12819419</v>
       </c>
@@ -28064,7 +28064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>12819420</v>
       </c>
@@ -28111,7 +28111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>12819421</v>
       </c>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>12819422</v>
       </c>
@@ -28205,7 +28205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>12819423</v>
       </c>
@@ -28252,7 +28252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>12819424</v>
       </c>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>12819425</v>
       </c>
@@ -28346,7 +28346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>12819425</v>
       </c>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>12819278</v>
       </c>
@@ -28440,7 +28440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>12819282</v>
       </c>
@@ -28487,7 +28487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>12819344</v>
       </c>
@@ -28534,7 +28534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>12819418</v>
       </c>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>12819419</v>
       </c>
@@ -28628,7 +28628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>12819420</v>
       </c>
@@ -28675,7 +28675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>12819421</v>
       </c>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>12819422</v>
       </c>
@@ -28769,7 +28769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>12819423</v>
       </c>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>12819424</v>
       </c>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>12819425</v>
       </c>
@@ -28910,7 +28910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>12819425</v>
       </c>
@@ -28957,7 +28957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>12819277</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>12819277</v>
       </c>
@@ -29051,7 +29051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>12819278</v>
       </c>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>12819282</v>
       </c>
@@ -29145,7 +29145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>12819344</v>
       </c>
@@ -29192,7 +29192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>12819418</v>
       </c>
@@ -29239,7 +29239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>12819419</v>
       </c>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>12819420</v>
       </c>
@@ -29333,7 +29333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>12819421</v>
       </c>
@@ -29380,7 +29380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>12819422</v>
       </c>
@@ -29427,7 +29427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>12819423</v>
       </c>
@@ -29474,7 +29474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>12819424</v>
       </c>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>12819425</v>
       </c>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>12819425</v>
       </c>
@@ -29615,7 +29615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>12819277</v>
       </c>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>12819277</v>
       </c>
@@ -29709,7 +29709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>12819278</v>
       </c>
@@ -29756,7 +29756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>12819282</v>
       </c>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>12819344</v>
       </c>
@@ -29850,7 +29850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>12819418</v>
       </c>
@@ -29897,7 +29897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>12819419</v>
       </c>
@@ -29944,7 +29944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>12819420</v>
       </c>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>12819421</v>
       </c>
@@ -30038,7 +30038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>12819422</v>
       </c>
@@ -30085,7 +30085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>12819423</v>
       </c>
@@ -30132,7 +30132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>12819424</v>
       </c>
@@ -30179,7 +30179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>12819425</v>
       </c>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>12819425</v>
       </c>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>12819277</v>
       </c>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>12819277</v>
       </c>
@@ -30367,7 +30367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>12819278</v>
       </c>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>12819282</v>
       </c>
@@ -30461,7 +30461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>12819344</v>
       </c>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>12819418</v>
       </c>
@@ -30555,7 +30555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>12819419</v>
       </c>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>12819420</v>
       </c>
@@ -30649,7 +30649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>12819421</v>
       </c>
@@ -30696,7 +30696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>12819422</v>
       </c>
@@ -30743,7 +30743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>12819423</v>
       </c>
@@ -30790,7 +30790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>12819424</v>
       </c>
@@ -30837,7 +30837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>12819425</v>
       </c>
@@ -30884,7 +30884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>12819425</v>
       </c>
@@ -30931,7 +30931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>12819277</v>
       </c>
@@ -30978,7 +30978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>12819277</v>
       </c>
@@ -31025,7 +31025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>12819278</v>
       </c>
@@ -31072,7 +31072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>12819282</v>
       </c>
@@ -31119,7 +31119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>12819344</v>
       </c>
@@ -31166,7 +31166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>12819418</v>
       </c>
@@ -31213,7 +31213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>12819419</v>
       </c>
@@ -31260,7 +31260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>12819420</v>
       </c>
@@ -31307,7 +31307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>12819421</v>
       </c>
@@ -31354,7 +31354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>12819422</v>
       </c>
@@ -31401,7 +31401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>12819423</v>
       </c>
@@ -31448,7 +31448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>12819424</v>
       </c>
@@ -31495,7 +31495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>12819425</v>
       </c>
@@ -31542,7 +31542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>12819425</v>
       </c>
